--- a/natmiOut/OldD4/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H2">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I2">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J2">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N2">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O2">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P2">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q2">
-        <v>253.3715314165596</v>
+        <v>340.239658722425</v>
       </c>
       <c r="R2">
-        <v>253.3715314165596</v>
+        <v>3062.156928501825</v>
       </c>
       <c r="S2">
-        <v>0.001853245112270088</v>
+        <v>0.002209679985306129</v>
       </c>
       <c r="T2">
-        <v>0.001853245112270088</v>
+        <v>0.002232631170439997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H3">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I3">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J3">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N3">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O3">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P3">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q3">
-        <v>290.7419660436141</v>
+        <v>371.2608719565899</v>
       </c>
       <c r="R3">
-        <v>290.7419660436141</v>
+        <v>3341.34784760931</v>
       </c>
       <c r="S3">
-        <v>0.002126585115895574</v>
+        <v>0.002411146664002072</v>
       </c>
       <c r="T3">
-        <v>0.002126585115895574</v>
+        <v>0.002436190414155221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H4">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I4">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J4">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N4">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O4">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P4">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q4">
-        <v>1830.372173970025</v>
+        <v>2568.051298671705</v>
       </c>
       <c r="R4">
-        <v>1830.372173970025</v>
+        <v>23112.46168804534</v>
       </c>
       <c r="S4">
-        <v>0.01338796141018795</v>
+        <v>0.01667816026274502</v>
       </c>
       <c r="T4">
-        <v>0.01338796141018795</v>
+        <v>0.01685139057049457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H5">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I5">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J5">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N5">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O5">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P5">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q5">
-        <v>2202.974512873612</v>
+        <v>2668.95240733814</v>
       </c>
       <c r="R5">
-        <v>2202.974512873612</v>
+        <v>24020.57166604326</v>
       </c>
       <c r="S5">
-        <v>0.01611330099168264</v>
+        <v>0.01733346059179137</v>
       </c>
       <c r="T5">
-        <v>0.01611330099168264</v>
+        <v>0.01751349727841489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H6">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I6">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J6">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N6">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O6">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P6">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q6">
-        <v>42.94991369757573</v>
+        <v>55.8579425301975</v>
       </c>
       <c r="R6">
-        <v>42.94991369757573</v>
+        <v>335.147655181185</v>
       </c>
       <c r="S6">
-        <v>0.0003141502014351882</v>
+        <v>0.0003627683442101404</v>
       </c>
       <c r="T6">
-        <v>0.0003141502014351882</v>
+        <v>0.0002443575293913757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H7">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I7">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J7">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N7">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O7">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P7">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q7">
-        <v>903.8638458709253</v>
+        <v>1121.240911359782</v>
       </c>
       <c r="R7">
-        <v>903.8638458709253</v>
+        <v>10091.16820223804</v>
       </c>
       <c r="S7">
-        <v>0.006611166002560846</v>
+        <v>0.007281877750057878</v>
       </c>
       <c r="T7">
-        <v>0.006611166002560846</v>
+        <v>0.007357512106831321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H8">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I8">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J8">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N8">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O8">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P8">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q8">
-        <v>1037.177105553382</v>
+        <v>1223.469597835562</v>
       </c>
       <c r="R8">
-        <v>1037.177105553382</v>
+        <v>11011.22638052006</v>
       </c>
       <c r="S8">
-        <v>0.007586264292120135</v>
+        <v>0.007945800007909527</v>
       </c>
       <c r="T8">
-        <v>0.007586264292120135</v>
+        <v>0.008028330296562598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H9">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I9">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J9">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N9">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O9">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P9">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q9">
-        <v>6529.570324219723</v>
+        <v>8462.870522952218</v>
       </c>
       <c r="R9">
-        <v>6529.570324219723</v>
+        <v>76165.83470656996</v>
       </c>
       <c r="S9">
-        <v>0.04775948671474595</v>
+        <v>0.05496195147568258</v>
       </c>
       <c r="T9">
-        <v>0.04775948671474595</v>
+        <v>0.05553282234025365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H10">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I10">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J10">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N10">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O10">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P10">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q10">
-        <v>7858.771679790356</v>
+        <v>8795.384526355519</v>
       </c>
       <c r="R10">
-        <v>7858.771679790356</v>
+        <v>79158.46073719968</v>
       </c>
       <c r="S10">
-        <v>0.05748171518162197</v>
+        <v>0.05712145733961749</v>
       </c>
       <c r="T10">
-        <v>0.05748171518162197</v>
+        <v>0.05771475824800053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H11">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I11">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J11">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N11">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O11">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P11">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q11">
-        <v>153.2171904139106</v>
+        <v>184.0767493842805</v>
       </c>
       <c r="R11">
-        <v>153.2171904139106</v>
+        <v>1104.460496305683</v>
       </c>
       <c r="S11">
-        <v>0.001120682373677981</v>
+        <v>0.001195482943998874</v>
       </c>
       <c r="T11">
-        <v>0.001120682373677981</v>
+        <v>0.0008052666757931728</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H12">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I12">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J12">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N12">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O12">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P12">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q12">
-        <v>3269.167742301298</v>
+        <v>3785.06983854531</v>
       </c>
       <c r="R12">
-        <v>3269.167742301298</v>
+        <v>34065.62854690779</v>
       </c>
       <c r="S12">
-        <v>0.02391179903179504</v>
+        <v>0.02458206399755073</v>
       </c>
       <c r="T12">
-        <v>0.02391179903179504</v>
+        <v>0.02483738943179103</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H13">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I13">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J13">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N13">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O13">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P13">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q13">
-        <v>3751.345904605137</v>
+        <v>4130.17204975906</v>
       </c>
       <c r="R13">
-        <v>3751.345904605137</v>
+        <v>37171.54844783154</v>
       </c>
       <c r="S13">
-        <v>0.02743861326201664</v>
+        <v>0.02682332373742729</v>
       </c>
       <c r="T13">
-        <v>0.02743861326201664</v>
+        <v>0.02710192836483812</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H14">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I14">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J14">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N14">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O14">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P14">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q14">
-        <v>23616.67719374104</v>
+        <v>28568.8433586438</v>
       </c>
       <c r="R14">
-        <v>23616.67719374104</v>
+        <v>257119.5902277942</v>
       </c>
       <c r="S14">
-        <v>0.1727403679989776</v>
+        <v>0.1855398092332391</v>
       </c>
       <c r="T14">
-        <v>0.1727403679989776</v>
+        <v>0.1874669473436134</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H15">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I15">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J15">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N15">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O15">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P15">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q15">
-        <v>28424.23998597513</v>
+        <v>29691.33961473334</v>
       </c>
       <c r="R15">
-        <v>28424.23998597513</v>
+        <v>267222.0565326001</v>
       </c>
       <c r="S15">
-        <v>0.2079045089615683</v>
+        <v>0.1928298397957423</v>
       </c>
       <c r="T15">
-        <v>0.2079045089615683</v>
+        <v>0.1948326969433456</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H16">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I16">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J16">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N16">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O16">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P16">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q16">
-        <v>554.1683061618123</v>
+        <v>621.4037902228617</v>
       </c>
       <c r="R16">
-        <v>554.1683061618123</v>
+        <v>3728.42274133717</v>
       </c>
       <c r="S16">
-        <v>0.004053374501182218</v>
+        <v>0.004035695083885073</v>
       </c>
       <c r="T16">
-        <v>0.004053374501182218</v>
+        <v>0.002718408306056137</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H17">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I17">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J17">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N17">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O17">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P17">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q17">
-        <v>2907.963022117206</v>
+        <v>3290.117504131812</v>
       </c>
       <c r="R17">
-        <v>2907.963022117206</v>
+        <v>29611.05753718631</v>
       </c>
       <c r="S17">
-        <v>0.02126982549014441</v>
+        <v>0.02136760548574537</v>
       </c>
       <c r="T17">
-        <v>0.02126982549014441</v>
+        <v>0.02158954344627899</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H18">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I18">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J18">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N18">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O18">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P18">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q18">
-        <v>3336.866148716931</v>
+        <v>3590.092636496958</v>
       </c>
       <c r="R18">
-        <v>3336.866148716931</v>
+        <v>32310.83372847263</v>
       </c>
       <c r="S18">
-        <v>0.02440696808293827</v>
+        <v>0.02331578827127298</v>
       </c>
       <c r="T18">
-        <v>0.02440696808293827</v>
+        <v>0.02355796133556941</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H19">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I19">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J19">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N19">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O19">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P19">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q19">
-        <v>21007.31115630475</v>
+        <v>24833.05609050485</v>
       </c>
       <c r="R19">
-        <v>21007.31115630475</v>
+        <v>223497.5048145437</v>
       </c>
       <c r="S19">
-        <v>0.1536545818888878</v>
+        <v>0.1612778099508374</v>
       </c>
       <c r="T19">
-        <v>0.1536545818888878</v>
+        <v>0.1629529470289577</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H20">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I20">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J20">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N20">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O20">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P20">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q20">
-        <v>25283.69460565387</v>
+        <v>25808.76981258033</v>
       </c>
       <c r="R20">
-        <v>25283.69460565387</v>
+        <v>232278.9283132229</v>
       </c>
       <c r="S20">
-        <v>0.1849334974063119</v>
+        <v>0.1676145641409703</v>
       </c>
       <c r="T20">
-        <v>0.1849334974063119</v>
+        <v>0.1693555189028876</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H21">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I21">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J21">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N21">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O21">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P21">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q21">
-        <v>492.939203301167</v>
+        <v>540.1463049706464</v>
       </c>
       <c r="R21">
-        <v>492.939203301167</v>
+        <v>3240.877829823878</v>
       </c>
       <c r="S21">
-        <v>0.003605524125211538</v>
+        <v>0.003507969893081812</v>
       </c>
       <c r="T21">
-        <v>0.003605524125211538</v>
+        <v>0.00236293731229275</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H22">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I22">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J22">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N22">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O22">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P22">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q22">
-        <v>162.88821092764</v>
+        <v>188.4962214301675</v>
       </c>
       <c r="R22">
-        <v>162.88821092764</v>
+        <v>1130.977328581005</v>
       </c>
       <c r="S22">
-        <v>0.001191419490028541</v>
+        <v>0.001224185121052795</v>
       </c>
       <c r="T22">
-        <v>0.001191419490028541</v>
+        <v>0.0008246002069156876</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H23">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I23">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J23">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N23">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O23">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P23">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q23">
-        <v>186.9130222549294</v>
+        <v>205.682288159649</v>
       </c>
       <c r="R23">
-        <v>186.9130222549294</v>
+        <v>1234.093728957894</v>
       </c>
       <c r="S23">
-        <v>0.001367145089177681</v>
+        <v>0.001335799704199471</v>
       </c>
       <c r="T23">
-        <v>0.001367145089177681</v>
+        <v>0.0008997827971749168</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H24">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I24">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J24">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N24">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O24">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P24">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q24">
-        <v>1176.714870383526</v>
+        <v>1422.726463035176</v>
       </c>
       <c r="R24">
-        <v>1176.714870383526</v>
+        <v>8536.358778211054</v>
       </c>
       <c r="S24">
-        <v>0.008606890718470324</v>
+        <v>0.009239869925037057</v>
       </c>
       <c r="T24">
-        <v>0.008606890718470324</v>
+        <v>0.006223894181549203</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H25">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I25">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J25">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N25">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O25">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P25">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q25">
-        <v>1416.254522025276</v>
+        <v>1478.626700512354</v>
       </c>
       <c r="R25">
-        <v>1416.254522025276</v>
+        <v>8871.760203074125</v>
       </c>
       <c r="S25">
-        <v>0.01035896478187451</v>
+        <v>0.00960291295297506</v>
       </c>
       <c r="T25">
-        <v>0.01035896478187451</v>
+        <v>0.006468436735456019</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H26">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I26">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J26">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N26">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O26">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P26">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q26">
-        <v>27.61176270507165</v>
+        <v>30.94586663806725</v>
       </c>
       <c r="R26">
-        <v>27.61176270507165</v>
+        <v>123.783466552269</v>
       </c>
       <c r="S26">
-        <v>0.0002019617752169892</v>
+        <v>0.000200977341662208</v>
       </c>
       <c r="T26">
-        <v>0.0002019617752169892</v>
+        <v>9.025103293609595E-05</v>
       </c>
     </row>
   </sheetData>
